--- a/PA4/Project4Analysis.xlsx
+++ b/PA4/Project4Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="10890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet12" sheetId="12" r:id="rId1"/>
@@ -642,7 +642,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -653,18 +653,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -681,14 +675,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,7 +1221,7 @@
                   <c:v>10076411.166666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14248145</c:v>
+                  <c:v>14312875.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16742839.833333334</c:v>
@@ -1540,7 +1534,7 @@
                   <c:v>10.076411166666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.248144999999999</c:v>
+                  <c:v>14.3128756</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16.742839833333335</c:v>
@@ -8064,7 +8058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -8323,8 +8317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q491"/>
   <sheetViews>
-    <sheetView topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M491"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="E511" sqref="E511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12483,8 +12477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NL72"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12495,7 +12489,8 @@
     <col min="4" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="242" width="9.140625" customWidth="1"/>
-    <col min="243" max="243" width="9.140625" hidden="1"/>
+    <col min="243" max="243" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="244" max="376" width="0" hidden="1" customWidth="1"/>
     <col min="377" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -12514,11 +12509,11 @@
       <c r="A2">
         <v>120</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>AVERAGE(D2:I2)</f>
         <v>5442</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>STDEV(D2:I2)</f>
         <v>2005.8817512505566</v>
       </c>
@@ -12548,11 +12543,11 @@
       <c r="A3">
         <v>120</v>
       </c>
-      <c r="B3" s="4" t="e">
+      <c r="B3" s="3" t="e">
         <f t="shared" ref="B3:B47" si="0">AVERAGE(D3:I3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C3" s="4" t="e">
+      <c r="C3" s="3" t="e">
         <f t="shared" ref="C3:C47" si="1">STDEV(D3:I3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12579,11 +12574,11 @@
       <c r="A4">
         <v>240</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>23541.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" si="1"/>
         <v>2968.4008320979833</v>
       </c>
@@ -12610,11 +12605,11 @@
       <c r="A5">
         <v>240</v>
       </c>
-      <c r="B5" s="4" t="e">
+      <c r="B5" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C5" s="4" t="e">
+      <c r="C5" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -12641,11 +12636,11 @@
       <c r="A6">
         <v>360</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>136112</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>2672.921173547772</v>
       </c>
@@ -12687,11 +12682,11 @@
       <c r="A7">
         <v>360</v>
       </c>
-      <c r="B7" s="4" t="e">
+      <c r="B7" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="4" t="e">
+      <c r="C7" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -12733,11 +12728,11 @@
       <c r="A8">
         <v>480</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>210463.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>3348.5858955684562</v>
       </c>
@@ -12764,11 +12759,11 @@
       <c r="A9">
         <v>480</v>
       </c>
-      <c r="B9" s="4" t="e">
+      <c r="B9" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C9" s="4" t="e">
+      <c r="C9" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -12795,11 +12790,11 @@
       <c r="A10">
         <v>600</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>600432.66666666663</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>588.90361407166336</v>
       </c>
@@ -12841,11 +12836,11 @@
       <c r="A11">
         <v>600</v>
       </c>
-      <c r="B11" s="4" t="e">
+      <c r="B11" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C11" s="4" t="e">
+      <c r="C11" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -12887,11 +12882,11 @@
       <c r="A12">
         <v>720</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>894806.66666666663</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>8666.6887948435451</v>
       </c>
@@ -12918,11 +12913,11 @@
       <c r="A13">
         <v>720</v>
       </c>
-      <c r="B13" s="4" t="e">
+      <c r="B13" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C13" s="4" t="e">
+      <c r="C13" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -12949,11 +12944,11 @@
       <c r="A14">
         <v>840</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>4214339.5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>6948.6096091232521</v>
       </c>
@@ -12980,11 +12975,11 @@
       <c r="A15">
         <v>840</v>
       </c>
-      <c r="B15" s="4" t="e">
+      <c r="B15" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C15" s="4" t="e">
+      <c r="C15" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13011,11 +13006,11 @@
       <c r="A16">
         <v>960</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10076411.166666666</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>177501.28309216996</v>
       </c>
@@ -13042,11 +13037,11 @@
       <c r="A17">
         <v>960</v>
       </c>
-      <c r="B17" s="4" t="e">
+      <c r="B17" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C17" s="4" t="e">
+      <c r="C17" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13074,24 +13069,24 @@
         <v>1020</v>
       </c>
       <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>14248145</v>
+        <f>AVERAGE(D18:I18)</f>
+        <v>14312875.6</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>STDEV(D18:I18)</f>
+        <v>142906.39009260572</v>
       </c>
       <c r="D18" s="5">
-        <v>14248145</v>
+        <v>14286944</v>
       </c>
       <c r="E18" s="5">
-        <v>14248145</v>
+        <v>14232852</v>
       </c>
       <c r="F18" s="5">
-        <v>14248145</v>
+        <v>14231102</v>
       </c>
       <c r="G18" s="5">
-        <v>14248145</v>
+        <v>14565335</v>
       </c>
       <c r="H18" s="5">
         <v>14248145</v>
@@ -13131,11 +13126,11 @@
       <c r="A20">
         <v>1080</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>16742839.833333334</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>33001.875234093393</v>
       </c>
@@ -13162,11 +13157,11 @@
       <c r="A21">
         <v>1080</v>
       </c>
-      <c r="B21" s="4" t="e">
+      <c r="B21" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C21" s="4" t="e">
+      <c r="C21" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13193,11 +13188,11 @@
       <c r="A22">
         <v>1200</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>24388250.333333332</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>367233.56900679256</v>
       </c>
@@ -13224,11 +13219,11 @@
       <c r="A23">
         <v>1200</v>
       </c>
-      <c r="B23" s="4" t="e">
+      <c r="B23" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C23" s="4" t="e">
+      <c r="C23" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13255,11 +13250,11 @@
       <c r="A24">
         <v>1320</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>34929135.333333336</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f t="shared" si="1"/>
         <v>23328.163568242286</v>
       </c>
@@ -13286,11 +13281,11 @@
       <c r="A25">
         <v>1320</v>
       </c>
-      <c r="B25" s="4" t="e">
+      <c r="B25" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="4" t="e">
+      <c r="C25" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13317,11 +13312,11 @@
       <c r="A26">
         <v>1440</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>45805104.666666664</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" si="1"/>
         <v>2055562.4071696452</v>
       </c>
@@ -13351,11 +13346,11 @@
       <c r="A27">
         <v>1440</v>
       </c>
-      <c r="B27" s="4" t="e">
+      <c r="B27" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C27" s="4" t="e">
+      <c r="C27" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13382,11 +13377,11 @@
       <c r="A28">
         <v>1560</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>58153785.333333336</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" si="1"/>
         <v>869923.21441990882</v>
       </c>
@@ -13413,11 +13408,11 @@
       <c r="A29">
         <v>1560</v>
       </c>
-      <c r="B29" s="4" t="e">
+      <c r="B29" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C29" s="4" t="e">
+      <c r="C29" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13444,11 +13439,11 @@
       <c r="A30">
         <v>1680</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>73323702.666666672</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="1"/>
         <v>1217188.1144438877</v>
       </c>
@@ -13475,11 +13470,11 @@
       <c r="A31">
         <v>1680</v>
       </c>
-      <c r="B31" s="4" t="e">
+      <c r="B31" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C31" s="4" t="e">
+      <c r="C31" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13506,11 +13501,11 @@
       <c r="A32">
         <v>1800</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>91173714.666666672</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="1"/>
         <v>1380528.6394923744</v>
       </c>
@@ -13537,11 +13532,11 @@
       <c r="A33">
         <v>1800</v>
       </c>
-      <c r="B33" s="4" t="e">
+      <c r="B33" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C33" s="4" t="e">
+      <c r="C33" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13568,11 +13563,11 @@
       <c r="A34">
         <v>1920</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>112602742.66666667</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="1"/>
         <v>2094029.965547835</v>
       </c>
@@ -13599,11 +13594,11 @@
       <c r="A35">
         <v>1920</v>
       </c>
-      <c r="B35" s="4" t="e">
+      <c r="B35" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C35" s="4" t="e">
+      <c r="C35" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13630,11 +13625,11 @@
       <c r="A36">
         <v>2040</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <f t="shared" si="0"/>
         <v>132669829.33333333</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>1928555.7552708364</v>
       </c>
@@ -13679,11 +13674,11 @@
       <c r="A37">
         <v>2040</v>
       </c>
-      <c r="B37" s="4" t="e">
+      <c r="B37" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C37" s="4" t="e">
+      <c r="C37" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13725,11 +13720,11 @@
       <c r="A38">
         <v>2160</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <f t="shared" si="0"/>
         <v>161635685.33333334</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>6071020.2179282745</v>
       </c>
@@ -13771,11 +13766,11 @@
       <c r="A39">
         <v>2160</v>
       </c>
-      <c r="B39" s="4" t="e">
+      <c r="B39" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C39" s="4" t="e">
+      <c r="C39" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13820,11 +13815,11 @@
       <c r="A40">
         <v>2280</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>189952202.66666666</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>3875360.8569840654</v>
       </c>
@@ -13866,11 +13861,11 @@
       <c r="A41">
         <v>2280</v>
       </c>
-      <c r="B41" s="4" t="e">
+      <c r="B41" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C41" s="4" t="e">
+      <c r="C41" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13912,11 +13907,11 @@
       <c r="A42">
         <v>2400</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <f t="shared" si="0"/>
         <v>221616242.66666666</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>3581117.1399780079</v>
       </c>
@@ -13958,11 +13953,11 @@
       <c r="A43">
         <v>2400</v>
       </c>
-      <c r="B43" s="4" t="e">
+      <c r="B43" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C43" s="4" t="e">
+      <c r="C43" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -14004,11 +13999,11 @@
       <c r="A44">
         <v>2520</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <f t="shared" si="0"/>
         <v>258056192</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <f t="shared" si="1"/>
         <v>8910986.593613077</v>
       </c>
@@ -14050,11 +14045,11 @@
       <c r="A45">
         <v>2520</v>
       </c>
-      <c r="B45" s="4" t="e">
+      <c r="B45" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C45" s="4" t="e">
+      <c r="C45" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -14096,11 +14091,11 @@
       <c r="A46">
         <v>2640</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <f t="shared" si="0"/>
         <v>297453840</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <f t="shared" si="1"/>
         <v>6158778.5859834254</v>
       </c>
@@ -14142,11 +14137,11 @@
       <c r="A47">
         <v>2640</v>
       </c>
-      <c r="B47" s="4" t="e">
+      <c r="B47" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C47" s="4" t="e">
+      <c r="C47" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -14185,8 +14180,8 @@
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
@@ -14194,7 +14189,7 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <f>B2/POWER(10,6)</f>
         <v>5.4419999999999998E-3</v>
       </c>
@@ -14204,7 +14199,7 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <f>B4/POWER(10,6)</f>
         <v>2.35415E-2</v>
       </c>
@@ -14214,7 +14209,7 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <f>B6/POWER(10,6)</f>
         <v>0.13611200000000001</v>
       </c>
@@ -14224,7 +14219,7 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <f>B8/POWER(10,6)</f>
         <v>0.2104635</v>
       </c>
@@ -14234,7 +14229,7 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <f>B10/POWER(10,6)</f>
         <v>0.60043266666666661</v>
       </c>
@@ -14244,7 +14239,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <f>B12/POWER(10,6)</f>
         <v>0.89480666666666664</v>
       </c>
@@ -14254,7 +14249,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <f>B14/POWER(10,6)</f>
         <v>4.2143395000000003</v>
       </c>
@@ -14264,7 +14259,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <f>B16/POWER(10,6)</f>
         <v>10.076411166666666</v>
       </c>
@@ -14274,17 +14269,17 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <f>B18/POWER(10,6)</f>
-        <v>14.248144999999999</v>
+        <v>14.3128756</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
-        <v>14248145</v>
+        <v>14312875.6</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <f>B20/POWER(10,6)</f>
         <v>16.742839833333335</v>
       </c>
@@ -14294,7 +14289,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <f>B22/POWER(10,6)</f>
         <v>24.388250333333332</v>
       </c>
@@ -14304,7 +14299,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <f>B24/POWER(10,6)</f>
         <v>34.929135333333335</v>
       </c>
@@ -14314,7 +14309,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <f>B26/POWER(10,6)</f>
         <v>45.805104666666665</v>
       </c>
@@ -14324,7 +14319,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <f>B28/POWER(10,6)</f>
         <v>58.153785333333339</v>
       </c>
@@ -14334,7 +14329,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <f>B30/POWER(10,6)</f>
         <v>73.323702666666676</v>
       </c>
@@ -14344,7 +14339,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <f>B32/POWER(10,6)</f>
         <v>91.173714666666669</v>
       </c>
@@ -14354,7 +14349,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <f>B34/POWER(10,6)</f>
         <v>112.60274266666667</v>
       </c>
@@ -14364,7 +14359,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <f>B36/POWER(10,6)</f>
         <v>132.66982933333333</v>
       </c>
@@ -14374,7 +14369,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <f>B38/POWER(10,6)</f>
         <v>161.63568533333336</v>
       </c>
@@ -14384,7 +14379,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <f>B40/POWER(10,6)</f>
         <v>189.95220266666666</v>
       </c>
@@ -14394,7 +14389,7 @@
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <f>B42/POWER(10,6)</f>
         <v>221.61624266666666</v>
       </c>
@@ -14404,7 +14399,7 @@
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <f>B44/POWER(10,6)</f>
         <v>258.05619200000001</v>
       </c>
@@ -14414,7 +14409,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <f>B46/POWER(10,6)</f>
         <v>297.45384000000001</v>
       </c>
@@ -14428,7 +14423,8 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19186,7 +19182,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <f>TRIMMEAN(B2:G2, 0.2)</f>
         <v>24051.166666666668</v>
       </c>
@@ -19210,7 +19206,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f t="shared" ref="A3:A32" si="0">TRIMMEAN(B3:G3, 0.2)</f>
         <v>11051.666666666666</v>
       </c>
@@ -19234,7 +19230,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>52583</v>
       </c>
@@ -19258,7 +19254,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>106973.5</v>
       </c>
@@ -19282,7 +19278,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>110726.16666666667</v>
       </c>
@@ -19306,7 +19302,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>199005.5</v>
       </c>
@@ -19330,7 +19326,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>154338.16666666666</v>
       </c>
@@ -19354,7 +19350,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>531185.16666666663</v>
       </c>
@@ -19378,7 +19374,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>493194.16666666669</v>
       </c>
@@ -19402,7 +19398,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>875827.66666666663</v>
       </c>
@@ -19426,7 +19422,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>757527.66666666663</v>
       </c>
@@ -19450,7 +19446,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>598900.33333333337</v>
       </c>
@@ -19474,7 +19470,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>1018206.5</v>
       </c>
@@ -19498,7 +19494,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>982701.16666666663</v>
       </c>
@@ -19522,7 +19518,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>1514415.3333333333</v>
       </c>
@@ -19546,7 +19542,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>1482574.8333333333</v>
       </c>
@@ -19570,7 +19566,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>1652150</v>
       </c>
@@ -19594,7 +19590,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>1767076.5</v>
       </c>
@@ -19618,7 +19614,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>1699179.8333333333</v>
       </c>
@@ -19642,7 +19638,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2125914.8333333335</v>
       </c>
@@ -19666,7 +19662,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>3115384.1666666665</v>
       </c>
@@ -19690,7 +19686,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>3573438.8333333335</v>
       </c>
@@ -19729,7 +19725,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>4402756.4000000004</v>
       </c>
@@ -19750,7 +19746,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>14667506.199999999</v>
       </c>
@@ -19771,7 +19767,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>36157344</v>
       </c>
@@ -19792,7 +19788,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>72102244.799999997</v>
       </c>
@@ -19813,7 +19809,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>105465446.40000001</v>
       </c>
@@ -19834,7 +19830,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>146684464</v>
       </c>
@@ -19852,7 +19848,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>200119664</v>
       </c>
@@ -19870,7 +19866,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>261484960</v>
       </c>
@@ -19888,7 +19884,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>333422480</v>
       </c>
@@ -19930,30 +19926,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
